--- a/material/등급별.xlsx
+++ b/material/등급별.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjdwh\Documents\GitHub\BigData_P\material\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC18413-DF2E-4D68-BC05-1F2A807315A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="525" windowWidth="20175" windowHeight="9675"/>
+    <workbookView xWindow="2568" yWindow="2004" windowWidth="30312" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="데이터" sheetId="1" r:id="rId1"/>
@@ -132,26 +138,22 @@
   </si>
   <si>
     <t>area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>qualify</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>population</t>
   </si>
   <si>
     <t>use</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>population</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -166,94 +168,21 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFF4E1F"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBCCCE0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF0EBD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE2ECF8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0F0F0F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF0C1F30"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF0C1F30"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -262,24 +191,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -290,6 +207,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -338,7 +258,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -371,9 +291,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -406,6 +343,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -581,268 +535,281 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="H1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.625" customWidth="1"/>
-    <col min="2" max="2" width="6.875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="17" spans="8:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="18" spans="8:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H18" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="I18" t="s">
         <v>39</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J18" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" t="s">
         <v>41</v>
       </c>
-      <c r="D1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    </row>
+    <row r="19" spans="8:11" x14ac:dyDescent="0.4">
+      <c r="H19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6">
+      <c r="I19">
         <v>99868</v>
       </c>
-      <c r="C2" s="7">
+      <c r="J19">
         <v>14.88</v>
       </c>
-      <c r="D2" s="6">
+      <c r="K19">
         <v>6.15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+    <row r="20" spans="8:11" x14ac:dyDescent="0.4">
+      <c r="H20" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
+      <c r="I20">
         <v>40688</v>
       </c>
-      <c r="C3" s="7">
+      <c r="J20">
         <v>6.06</v>
       </c>
-      <c r="D3" s="6">
+      <c r="K20">
         <v>4.21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+    <row r="21" spans="8:11" x14ac:dyDescent="0.4">
+      <c r="H21" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6">
+      <c r="I21">
         <v>28650</v>
       </c>
-      <c r="C4" s="7">
+      <c r="J21">
         <v>4.2699999999999996</v>
       </c>
-      <c r="D4" s="6">
+      <c r="K21">
         <v>5.97</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+    <row r="22" spans="8:11" x14ac:dyDescent="0.4">
+      <c r="H22" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6">
+      <c r="I22">
         <v>36542</v>
       </c>
-      <c r="C5" s="7">
+      <c r="J22">
         <v>5.45</v>
       </c>
-      <c r="D5" s="6">
+      <c r="K22">
         <v>7.41</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+    <row r="23" spans="8:11" x14ac:dyDescent="0.4">
+      <c r="H23" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6">
+      <c r="I23">
         <v>17463</v>
       </c>
-      <c r="C6" s="7">
+      <c r="J23">
         <v>2.6</v>
       </c>
-      <c r="D6" s="6">
+      <c r="K23">
         <v>7.65</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+    <row r="24" spans="8:11" x14ac:dyDescent="0.4">
+      <c r="H24" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6">
+      <c r="I24">
         <v>17899</v>
       </c>
-      <c r="C7" s="7">
+      <c r="J24">
         <v>2.66</v>
       </c>
-      <c r="D7" s="6">
+      <c r="K24">
         <v>10.51</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+    <row r="25" spans="8:11" x14ac:dyDescent="0.4">
+      <c r="H25" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6">
+      <c r="I25">
         <v>9316</v>
       </c>
-      <c r="C8" s="7">
+      <c r="J25">
         <v>1.38</v>
       </c>
-      <c r="D8" s="6">
+      <c r="K25">
         <v>4.29</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+    <row r="26" spans="8:11" x14ac:dyDescent="0.4">
+      <c r="H26" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="6">
+      <c r="I26">
         <v>2758</v>
       </c>
-      <c r="C9" s="7">
+      <c r="J26">
         <v>0.41</v>
       </c>
-      <c r="D9" s="6">
+      <c r="K26">
         <v>3.14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+    <row r="27" spans="8:11" x14ac:dyDescent="0.4">
+      <c r="H27" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="6">
+      <c r="I27">
         <v>142770</v>
       </c>
-      <c r="C10" s="7">
+      <c r="J27">
         <v>21.28</v>
       </c>
-      <c r="D10" s="6">
+      <c r="K27">
         <v>6.9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+    <row r="28" spans="8:11" x14ac:dyDescent="0.4">
+      <c r="H28" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="6">
+      <c r="I28">
         <v>27744</v>
       </c>
-      <c r="C11" s="7">
+      <c r="J28">
         <v>4.13</v>
       </c>
-      <c r="D11" s="6">
+      <c r="K28">
         <v>5.37</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+    <row r="29" spans="8:11" x14ac:dyDescent="0.4">
+      <c r="H29" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="6">
+      <c r="I29">
         <v>24848</v>
       </c>
-      <c r="C12" s="7">
+      <c r="J29">
         <v>3.7</v>
       </c>
-      <c r="D12" s="6">
+      <c r="K29">
         <v>4.33</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+    <row r="30" spans="8:11" x14ac:dyDescent="0.4">
+      <c r="H30" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="6">
+      <c r="I30">
         <v>38236</v>
       </c>
-      <c r="C13" s="7">
+      <c r="J30">
         <v>5.69</v>
       </c>
-      <c r="D13" s="6">
+      <c r="K30">
         <v>5.2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+    <row r="31" spans="8:11" x14ac:dyDescent="0.4">
+      <c r="H31" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="6">
+      <c r="I31">
         <v>36660</v>
       </c>
-      <c r="C14" s="7">
+      <c r="J31">
         <v>5.46</v>
       </c>
-      <c r="D14" s="6">
+      <c r="K31">
         <v>5.43</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+    <row r="32" spans="8:11" x14ac:dyDescent="0.4">
+      <c r="H32" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="6">
+      <c r="I32">
         <v>41778</v>
       </c>
-      <c r="C15" s="7">
+      <c r="J32">
         <v>6.22</v>
       </c>
-      <c r="D15" s="6">
+      <c r="K32">
         <v>5.23</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+    <row r="33" spans="8:11" x14ac:dyDescent="0.4">
+      <c r="H33" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="6">
+      <c r="I33">
         <v>49760</v>
       </c>
-      <c r="C16" s="7">
+      <c r="J33">
         <v>7.41</v>
       </c>
-      <c r="D16" s="6">
+      <c r="K33">
         <v>5.26</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+    <row r="34" spans="8:11" x14ac:dyDescent="0.4">
+      <c r="H34" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="6">
+      <c r="I34">
         <v>47195</v>
       </c>
-      <c r="C17" s="7">
+      <c r="J34">
         <v>7.03</v>
       </c>
-      <c r="D17" s="6">
+      <c r="K34">
         <v>4.7699999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
+    <row r="35" spans="8:11" x14ac:dyDescent="0.4">
+      <c r="H35" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="6">
+      <c r="I35">
         <v>8635</v>
       </c>
-      <c r="C18" s="7">
+      <c r="J35">
         <v>1.28</v>
       </c>
-      <c r="D18" s="6">
+      <c r="K35">
         <v>4.57</v>
       </c>
     </row>
@@ -853,115 +820,115 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="5"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="5"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="1" t="s">
         <v>37</v>
       </c>
     </row>
